--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLT.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BD9366-BCF2-4460-A35D-BB270C926B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF7BBA0-2EA4-4E68-B8CE-A52D35D6931F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -65,13 +65,13 @@
     <t>Đối tác</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO  ĐỐI TÁC</t>
-  </si>
-  <si>
     <t>Loại tiền</t>
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - THEO  ĐỐI TÁC - THEO LOẠI TIỀN</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B1:B1048576"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +607,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -654,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -690,7 +690,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
